--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_21_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_21_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2859657.204885029</v>
+        <v>-2862577.56749348</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21.29622749981463</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.86362115323885</v>
+        <v>22.3500076535318</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>22.3500076535318</v>
       </c>
       <c r="S5" t="n">
-        <v>22.35000765353303</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>22.3500076535318</v>
       </c>
       <c r="U5" t="n">
-        <v>22.35000765353303</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>12.80984099951936</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>22.3500076535318</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>22.35000765353303</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>19.68588674123189</v>
+        <v>19.6858867412308</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>22.3500076535318</v>
       </c>
       <c r="X6" t="n">
-        <v>22.35000765353303</v>
+        <v>22.3500076535318</v>
       </c>
       <c r="Y6" t="n">
-        <v>22.35000765353303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>22.3500076535318</v>
       </c>
       <c r="R7" t="n">
-        <v>22.35000765353303</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>22.35000765353303</v>
+        <v>19.6858867412308</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>22.3500076535318</v>
       </c>
       <c r="U7" t="n">
-        <v>22.35000765353303</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>22.3500076535318</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.6858867412319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.48408095183345</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>29.63673178547968</v>
       </c>
       <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>112.1126601249236</v>
       </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
       <c r="V8" t="n">
+        <v>48.84734916635377</v>
+      </c>
+      <c r="W8" t="n">
         <v>112.1126601249236</v>
       </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>112.1126601249236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1257,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>36.5739230774922</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>112.1126601249236</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>98.74883103803269</v>
       </c>
       <c r="U9" t="n">
-        <v>62.1749079605405</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="V9" t="n">
-        <v>112.1126601249236</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>112.1126601249236</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
         <v>112.1126601249236</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>112.1126601249236</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
+        <v>112.1126601249236</v>
+      </c>
+      <c r="X10" t="n">
         <v>98.74883103803269</v>
       </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
       <c r="Y10" t="n">
-        <v>112.1126601249236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,13 +1370,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>197.4149500449643</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>85.17289288835305</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.75769145492377</v>
+        <v>126.0955237083903</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.1644063769637</v>
+        <v>374.4976191876822</v>
       </c>
       <c r="H14" t="n">
-        <v>238.8047027916316</v>
+        <v>286.8518683469698</v>
       </c>
       <c r="I14" t="n">
-        <v>12.38037836605497</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>91.93034877516573</v>
+        <v>91.93034877516568</v>
       </c>
       <c r="T14" t="n">
         <v>200.6028050067863</v>
@@ -1704,7 +1704,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I15" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T15" t="n">
         <v>189.0833237787849</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>81.97599399093663</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,10 +1774,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>80.41527379555131</v>
       </c>
       <c r="G16" t="n">
-        <v>165.6861009032421</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>73.65767465442973</v>
+        <v>73.6576746544297</v>
       </c>
       <c r="S16" t="n">
         <v>183.8488525946973</v>
@@ -1841,19 +1841,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187949</v>
       </c>
       <c r="D17" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E17" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F17" t="n">
-        <v>375.2658433894972</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G17" t="n">
         <v>378.5542040247498</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T17" t="n">
         <v>168.9926026545724</v>
@@ -1910,7 +1910,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I18" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T18" t="n">
         <v>189.0833237787849</v>
@@ -2005,22 +2005,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D19" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E19" t="n">
         <v>114.8237602943553</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G19" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H19" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139452893</v>
+        <v>54.52629139453016</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>42.04747230221581</v>
       </c>
       <c r="S19" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T19" t="n">
         <v>186.4872700401421</v>
@@ -2065,7 +2065,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y19" t="n">
         <v>186.9744509998809</v>
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C20" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D20" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E20" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F20" t="n">
         <v>375.2658433894975</v>
@@ -2096,7 +2096,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H20" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947569</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T20" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3243840645695</v>
+        <v>219.324384064569</v>
       </c>
       <c r="V20" t="n">
         <v>296.142056117921</v>
@@ -2147,7 +2147,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y20" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I21" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T21" t="n">
         <v>189.0833237787849</v>
@@ -2242,22 +2242,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D22" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E22" t="n">
         <v>114.8237602943553</v>
       </c>
       <c r="F22" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G22" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H22" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442991</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453028</v>
+        <v>54.52629139453016</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>42.04747230221581</v>
       </c>
       <c r="S22" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T22" t="n">
         <v>186.4872700401421</v>
@@ -2302,7 +2302,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X22" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y22" t="n">
         <v>186.9744509998809</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T23" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U23" t="n">
-        <v>219.3243840645695</v>
+        <v>219.3243840645704</v>
       </c>
       <c r="V23" t="n">
         <v>296.142056117921</v>
@@ -2494,7 +2494,7 @@
         <v>110.1245053442998</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453018</v>
+        <v>54.52629139453001</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221582</v>
+        <v>42.0474723022158</v>
       </c>
       <c r="S25" t="n">
         <v>152.2386502424834</v>
@@ -2564,13 +2564,13 @@
         <v>350.3201677200479</v>
       </c>
       <c r="F26" t="n">
-        <v>375.2658433894976</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G26" t="n">
-        <v>378.5542040247499</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H26" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295185</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T26" t="n">
         <v>168.9926026545722</v>
       </c>
       <c r="U26" t="n">
-        <v>219.324384064569</v>
+        <v>219.3243840645699</v>
       </c>
       <c r="V26" t="n">
-        <v>296.1420561179211</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W26" t="n">
-        <v>317.6307663651992</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X26" t="n">
-        <v>338.1208983262552</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038398</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="27">
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>148.2217778297235</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C28" t="n">
-        <v>135.636618746414</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D28" t="n">
         <v>117.0052706659985</v>
@@ -2722,16 +2722,16 @@
         <v>114.8237602943553</v>
       </c>
       <c r="F28" t="n">
-        <v>113.8108456707149</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G28" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H28" t="n">
         <v>110.1245053442998</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453022</v>
+        <v>54.52629139453016</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221587</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S28" t="n">
         <v>152.2386502424834</v>
@@ -2770,16 +2770,16 @@
         <v>254.5831063612652</v>
       </c>
       <c r="V28" t="n">
-        <v>220.5274409716142</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W28" t="n">
-        <v>254.9127959843772</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X28" t="n">
         <v>194.0994530368233</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.974450999881</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="29">
@@ -2801,13 +2801,13 @@
         <v>350.3201677200479</v>
       </c>
       <c r="F29" t="n">
-        <v>375.2658433894976</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G29" t="n">
-        <v>378.5542040247499</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H29" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T29" t="n">
-        <v>168.9926026545725</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645681</v>
+        <v>219.3243840645699</v>
       </c>
       <c r="V29" t="n">
-        <v>296.1420561179211</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W29" t="n">
-        <v>317.6307663651992</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X29" t="n">
-        <v>338.1208983262552</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038398</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>148.2217778297235</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C31" t="n">
-        <v>135.636618746414</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D31" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943554</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G31" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442972</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453023</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221589</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S31" t="n">
-        <v>152.2386502424835</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T31" t="n">
-        <v>186.4872700401422</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U31" t="n">
-        <v>254.5831063612653</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V31" t="n">
-        <v>220.5274409716142</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W31" t="n">
-        <v>254.9127959843772</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.974450999881</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="32">
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D32" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E32" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F32" t="n">
         <v>375.2658433894975</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295174</v>
       </c>
       <c r="T32" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U32" t="n">
-        <v>219.3243840645699</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V32" t="n">
         <v>296.142056117921</v>
@@ -3095,7 +3095,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y32" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="33">
@@ -3190,22 +3190,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D34" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E34" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F34" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G34" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H34" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053443002</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453001</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S34" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T34" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612655</v>
       </c>
       <c r="V34" t="n">
         <v>220.5274409716141</v>
@@ -3250,10 +3250,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X34" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y34" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112681</v>
       </c>
       <c r="C35" t="n">
         <v>333.6626894187937</v>
@@ -3275,13 +3275,13 @@
         <v>350.3201677200479</v>
       </c>
       <c r="F35" t="n">
-        <v>375.2658433894976</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G35" t="n">
-        <v>378.5542040247499</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H35" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295185</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T35" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U35" t="n">
-        <v>219.3243840645686</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V35" t="n">
-        <v>296.1420561179211</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W35" t="n">
-        <v>317.6307663651992</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X35" t="n">
-        <v>338.1208983262552</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y35" t="n">
-        <v>354.6277363038398</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="36">
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>148.2217778297235</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C37" t="n">
-        <v>135.636618746414</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D37" t="n">
         <v>117.0052706659985</v>
@@ -3436,13 +3436,13 @@
         <v>113.8108456707174</v>
       </c>
       <c r="G37" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H37" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442994</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453022</v>
+        <v>54.52629139453018</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221587</v>
+        <v>42.04747230221513</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424834</v>
@@ -3478,19 +3478,19 @@
         <v>186.4872700401421</v>
       </c>
       <c r="U37" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612653</v>
       </c>
       <c r="V37" t="n">
-        <v>220.5274409716142</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W37" t="n">
-        <v>254.9127959843772</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X37" t="n">
         <v>194.0994530368233</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.974450999881</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>351.1236393112669</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C38" t="n">
-        <v>333.6626894187938</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D38" t="n">
-        <v>323.0728392684692</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E38" t="n">
-        <v>350.3201677200481</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F38" t="n">
-        <v>375.2658433894977</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G38" t="n">
-        <v>378.55420402475</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H38" t="n">
-        <v>255.2416659947561</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T38" t="n">
-        <v>168.9926026545726</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U38" t="n">
-        <v>219.3243840645686</v>
+        <v>219.3243840645704</v>
       </c>
       <c r="V38" t="n">
-        <v>296.1420561179212</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W38" t="n">
-        <v>317.6307663651993</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X38" t="n">
-        <v>338.1208983262553</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y38" t="n">
-        <v>354.6277363038399</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>148.2217778297236</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C40" t="n">
-        <v>135.6366187464141</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D40" t="n">
-        <v>117.0052706659986</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E40" t="n">
-        <v>114.8237602943555</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F40" t="n">
-        <v>113.8108456707175</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G40" t="n">
-        <v>134.0758985510284</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H40" t="n">
-        <v>110.1245053442999</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453033</v>
+        <v>54.52629139453018</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221598</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S40" t="n">
-        <v>152.2386502424835</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T40" t="n">
-        <v>186.4872700401422</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U40" t="n">
-        <v>254.5831063612654</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V40" t="n">
-        <v>220.5274409716143</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W40" t="n">
-        <v>254.9127959843773</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X40" t="n">
-        <v>194.0994530368234</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y40" t="n">
-        <v>186.9744509998811</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="41">
@@ -3791,10 +3791,10 @@
         <v>60.32014642295174</v>
       </c>
       <c r="T41" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U41" t="n">
-        <v>219.3243840645686</v>
+        <v>219.324384064569</v>
       </c>
       <c r="V41" t="n">
         <v>296.142056117921</v>
@@ -4031,7 +4031,7 @@
         <v>168.9926026545723</v>
       </c>
       <c r="U44" t="n">
-        <v>219.3243840645695</v>
+        <v>219.3243840645686</v>
       </c>
       <c r="V44" t="n">
         <v>296.142056117921</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221575</v>
+        <v>42.04747230221603</v>
       </c>
       <c r="S46" t="n">
         <v>152.2386502424833</v>
@@ -4189,7 +4189,7 @@
         <v>186.487270040142</v>
       </c>
       <c r="U46" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612653</v>
       </c>
       <c r="V46" t="n">
         <v>220.5274409716141</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.73715909203041</v>
+        <v>31.3092666680838</v>
       </c>
       <c r="C5" t="n">
-        <v>22.73715909203041</v>
+        <v>31.3092666680838</v>
       </c>
       <c r="D5" t="n">
-        <v>22.73715909203041</v>
+        <v>31.3092666680838</v>
       </c>
       <c r="E5" t="n">
-        <v>22.73715909203041</v>
+        <v>31.3092666680838</v>
       </c>
       <c r="F5" t="n">
-        <v>15.79165834282694</v>
+        <v>24.36376591888033</v>
       </c>
       <c r="G5" t="n">
-        <v>1.788000612282642</v>
+        <v>1.788000612282544</v>
       </c>
       <c r="H5" t="n">
-        <v>1.788000612282642</v>
+        <v>1.788000612282544</v>
       </c>
       <c r="I5" t="n">
-        <v>1.788000612282642</v>
+        <v>1.788000612282544</v>
       </c>
       <c r="J5" t="n">
-        <v>1.788000612282642</v>
+        <v>1.788000612282544</v>
       </c>
       <c r="K5" t="n">
-        <v>1.788000612282642</v>
+        <v>1.788000612282544</v>
       </c>
       <c r="L5" t="n">
-        <v>1.788000612282642</v>
+        <v>1.788000612282544</v>
       </c>
       <c r="M5" t="n">
-        <v>23.91450818928034</v>
+        <v>23.91450818927903</v>
       </c>
       <c r="N5" t="n">
-        <v>46.04101576627804</v>
+        <v>46.04101576627551</v>
       </c>
       <c r="O5" t="n">
-        <v>58.29395421004183</v>
+        <v>58.29395421003812</v>
       </c>
       <c r="P5" t="n">
-        <v>67.27352303713441</v>
+        <v>80.42046178703461</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.40003061413211</v>
+        <v>89.40003061412722</v>
       </c>
       <c r="R5" t="n">
-        <v>89.40003061413211</v>
+        <v>66.82426530752943</v>
       </c>
       <c r="S5" t="n">
-        <v>66.8242653075331</v>
+        <v>66.82426530752943</v>
       </c>
       <c r="T5" t="n">
-        <v>66.8242653075331</v>
+        <v>44.24850000093164</v>
       </c>
       <c r="U5" t="n">
-        <v>44.24850000093408</v>
+        <v>44.24850000093164</v>
       </c>
       <c r="V5" t="n">
-        <v>44.24850000093408</v>
+        <v>44.24850000093164</v>
       </c>
       <c r="W5" t="n">
-        <v>44.24850000093408</v>
+        <v>44.24850000093164</v>
       </c>
       <c r="X5" t="n">
-        <v>44.24850000093408</v>
+        <v>31.3092666680838</v>
       </c>
       <c r="Y5" t="n">
-        <v>44.24850000093408</v>
+        <v>31.3092666680838</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.788000612282642</v>
+        <v>1.788000612282544</v>
       </c>
       <c r="C6" t="n">
-        <v>1.788000612282642</v>
+        <v>1.788000612282544</v>
       </c>
       <c r="D6" t="n">
-        <v>1.788000612282642</v>
+        <v>1.788000612282544</v>
       </c>
       <c r="E6" t="n">
-        <v>1.788000612282642</v>
+        <v>1.788000612282544</v>
       </c>
       <c r="F6" t="n">
-        <v>1.788000612282642</v>
+        <v>1.788000612282544</v>
       </c>
       <c r="G6" t="n">
-        <v>1.788000612282642</v>
+        <v>1.788000612282544</v>
       </c>
       <c r="H6" t="n">
-        <v>1.788000612282642</v>
+        <v>1.788000612282544</v>
       </c>
       <c r="I6" t="n">
-        <v>1.788000612282642</v>
+        <v>1.788000612282544</v>
       </c>
       <c r="J6" t="n">
-        <v>1.788000612282642</v>
+        <v>1.788000612282544</v>
       </c>
       <c r="K6" t="n">
-        <v>1.788000612282642</v>
+        <v>1.788000612282544</v>
       </c>
       <c r="L6" t="n">
-        <v>10.09022486912468</v>
+        <v>10.09022486912415</v>
       </c>
       <c r="M6" t="n">
-        <v>32.21673244612238</v>
+        <v>32.21673244612063</v>
       </c>
       <c r="N6" t="n">
-        <v>54.34324002312007</v>
+        <v>54.34324002311712</v>
       </c>
       <c r="O6" t="n">
-        <v>76.46974760011777</v>
+        <v>76.46974760011361</v>
       </c>
       <c r="P6" t="n">
-        <v>89.40003061413211</v>
+        <v>89.40003061412722</v>
       </c>
       <c r="Q6" t="n">
-        <v>89.40003061413211</v>
+        <v>89.40003061412722</v>
       </c>
       <c r="R6" t="n">
-        <v>89.40003061413211</v>
+        <v>66.82426530752943</v>
       </c>
       <c r="S6" t="n">
-        <v>89.40003061413211</v>
+        <v>66.82426530752943</v>
       </c>
       <c r="T6" t="n">
-        <v>66.8242653075331</v>
+        <v>66.82426530752943</v>
       </c>
       <c r="U6" t="n">
-        <v>66.8242653075331</v>
+        <v>66.82426530752943</v>
       </c>
       <c r="V6" t="n">
-        <v>46.93953122548068</v>
+        <v>46.93953122547811</v>
       </c>
       <c r="W6" t="n">
-        <v>46.93953122548068</v>
+        <v>24.36376591888033</v>
       </c>
       <c r="X6" t="n">
-        <v>24.36376591888166</v>
+        <v>1.788000612282544</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.788000612282642</v>
+        <v>1.788000612282544</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.788000612282642</v>
+        <v>1.788000612282544</v>
       </c>
       <c r="C7" t="n">
-        <v>1.788000612282642</v>
+        <v>1.788000612282544</v>
       </c>
       <c r="D7" t="n">
-        <v>1.788000612282642</v>
+        <v>1.788000612282544</v>
       </c>
       <c r="E7" t="n">
-        <v>1.788000612282642</v>
+        <v>1.788000612282544</v>
       </c>
       <c r="F7" t="n">
-        <v>1.788000612282642</v>
+        <v>1.788000612282544</v>
       </c>
       <c r="G7" t="n">
-        <v>1.788000612282642</v>
+        <v>1.788000612282544</v>
       </c>
       <c r="H7" t="n">
-        <v>1.788000612282642</v>
+        <v>1.788000612282544</v>
       </c>
       <c r="I7" t="n">
-        <v>1.788000612282642</v>
+        <v>1.788000612282544</v>
       </c>
       <c r="J7" t="n">
-        <v>1.788000612282642</v>
+        <v>1.788000612282544</v>
       </c>
       <c r="K7" t="n">
-        <v>1.788000612282642</v>
+        <v>1.788000612282544</v>
       </c>
       <c r="L7" t="n">
-        <v>1.788000612282642</v>
+        <v>23.91450818927903</v>
       </c>
       <c r="M7" t="n">
-        <v>23.02050788313902</v>
+        <v>45.14701546013424</v>
       </c>
       <c r="N7" t="n">
-        <v>45.14701546013671</v>
+        <v>67.27352303713073</v>
       </c>
       <c r="O7" t="n">
-        <v>67.27352303713441</v>
+        <v>67.27352303713073</v>
       </c>
       <c r="P7" t="n">
-        <v>89.40003061413211</v>
+        <v>89.40003061412722</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.40003061413211</v>
+        <v>66.82426530752943</v>
       </c>
       <c r="R7" t="n">
-        <v>66.8242653075331</v>
+        <v>66.82426530752943</v>
       </c>
       <c r="S7" t="n">
-        <v>44.24850000093408</v>
+        <v>46.93953122547811</v>
       </c>
       <c r="T7" t="n">
-        <v>44.24850000093408</v>
+        <v>24.36376591888033</v>
       </c>
       <c r="U7" t="n">
-        <v>21.67273469433506</v>
+        <v>24.36376591888033</v>
       </c>
       <c r="V7" t="n">
-        <v>21.67273469433506</v>
+        <v>1.788000612282544</v>
       </c>
       <c r="W7" t="n">
-        <v>21.67273469433506</v>
+        <v>1.788000612282544</v>
       </c>
       <c r="X7" t="n">
-        <v>21.67273469433506</v>
+        <v>1.788000612282544</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.788000612282642</v>
+        <v>1.788000612282544</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>108.7153067878047</v>
+        <v>142.6835685788049</v>
       </c>
       <c r="C8" t="n">
-        <v>108.7153067878047</v>
+        <v>142.6835685788049</v>
       </c>
       <c r="D8" t="n">
-        <v>108.7153067878047</v>
+        <v>29.43845734150828</v>
       </c>
       <c r="E8" t="n">
-        <v>108.7153067878047</v>
+        <v>29.43845734150828</v>
       </c>
       <c r="F8" t="n">
-        <v>101.7698060386012</v>
+        <v>22.4929565923048</v>
       </c>
       <c r="G8" t="n">
-        <v>88.24586225629031</v>
+        <v>8.969012809993888</v>
       </c>
       <c r="H8" t="n">
-        <v>88.24586225629031</v>
+        <v>8.969012809993888</v>
       </c>
       <c r="I8" t="n">
         <v>8.969012809993888</v>
@@ -4805,10 +4805,10 @@
         <v>8.969012809993888</v>
       </c>
       <c r="K8" t="n">
-        <v>32.11753523687548</v>
+        <v>32.1175352368754</v>
       </c>
       <c r="L8" t="n">
-        <v>97.73708609773405</v>
+        <v>97.73708609773394</v>
       </c>
       <c r="M8" t="n">
         <v>202.4209174083927</v>
@@ -4826,28 +4826,28 @@
         <v>448.4506404996944</v>
       </c>
       <c r="R8" t="n">
-        <v>448.4506404996944</v>
+        <v>418.5145477870886</v>
       </c>
       <c r="S8" t="n">
-        <v>335.2055292623978</v>
+        <v>418.5145477870886</v>
       </c>
       <c r="T8" t="n">
-        <v>335.2055292623978</v>
+        <v>418.5145477870886</v>
       </c>
       <c r="U8" t="n">
-        <v>335.2055292623978</v>
+        <v>305.2694365497921</v>
       </c>
       <c r="V8" t="n">
-        <v>221.9604180251013</v>
+        <v>255.9286798161014</v>
       </c>
       <c r="W8" t="n">
-        <v>221.9604180251013</v>
+        <v>142.6835685788049</v>
       </c>
       <c r="X8" t="n">
-        <v>221.9604180251013</v>
+        <v>142.6835685788049</v>
       </c>
       <c r="Y8" t="n">
-        <v>108.7153067878047</v>
+        <v>142.6835685788049</v>
       </c>
     </row>
     <row r="9">
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.969012809993888</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="C9" t="n">
         <v>8.969012809993888</v>
@@ -4887,7 +4887,7 @@
         <v>8.969012809993888</v>
       </c>
       <c r="L9" t="n">
-        <v>65.44790611672052</v>
+        <v>91.93611230387157</v>
       </c>
       <c r="M9" t="n">
         <v>176.4394396403949</v>
@@ -4905,16 +4905,16 @@
         <v>448.4506404996944</v>
       </c>
       <c r="R9" t="n">
-        <v>411.5072838557629</v>
+        <v>448.4506404996944</v>
       </c>
       <c r="S9" t="n">
-        <v>298.2621726184663</v>
+        <v>335.2055292623978</v>
       </c>
       <c r="T9" t="n">
-        <v>298.2621726184663</v>
+        <v>235.459235284587</v>
       </c>
       <c r="U9" t="n">
-        <v>235.459235284587</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="V9" t="n">
         <v>122.2141240472905</v>
@@ -4923,10 +4923,10 @@
         <v>122.2141240472905</v>
       </c>
       <c r="X9" t="n">
-        <v>8.969012809993888</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.969012809993888</v>
+        <v>122.2141240472905</v>
       </c>
     </row>
     <row r="10">
@@ -4984,10 +4984,10 @@
         <v>448.4506404996944</v>
       </c>
       <c r="R10" t="n">
-        <v>335.2055292623978</v>
+        <v>448.4506404996944</v>
       </c>
       <c r="S10" t="n">
-        <v>335.2055292623978</v>
+        <v>448.4506404996944</v>
       </c>
       <c r="T10" t="n">
         <v>335.2055292623978</v>
@@ -4999,10 +4999,10 @@
         <v>221.9604180251013</v>
       </c>
       <c r="W10" t="n">
-        <v>122.2141240472905</v>
+        <v>108.7153067878047</v>
       </c>
       <c r="X10" t="n">
-        <v>122.2141240472905</v>
+        <v>8.969012809993888</v>
       </c>
       <c r="Y10" t="n">
         <v>8.969012809993888</v>
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>921.7704558796274</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C11" t="n">
-        <v>552.8079389392158</v>
+        <v>722.3614154301667</v>
       </c>
       <c r="D11" t="n">
-        <v>194.5422403324653</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="E11" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F11" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5060,31 +5060,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794326</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180641</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.509627919561</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y11" t="n">
-        <v>1308.370295943749</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="12">
@@ -5109,22 +5109,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5133,7 +5133,7 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
         <v>2407.411984886741</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.51211643218345</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5218,10 +5218,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S13" t="n">
         <v>1645.778206672847</v>
@@ -5233,16 +5233,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621296</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251691</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X13" t="n">
-        <v>362.8175152271517</v>
+        <v>362.8175152271513</v>
       </c>
       <c r="Y13" t="n">
-        <v>142.0249360836216</v>
+        <v>362.8175152271513</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1866.026662509058</v>
+        <v>1866.02666250906</v>
       </c>
       <c r="C14" t="n">
-        <v>1497.064145568647</v>
+        <v>1497.064145568648</v>
       </c>
       <c r="D14" t="n">
-        <v>1138.798446961896</v>
+        <v>1138.798446961898</v>
       </c>
       <c r="E14" t="n">
-        <v>753.0101943636519</v>
+        <v>753.0101943636537</v>
       </c>
       <c r="F14" t="n">
-        <v>753.0101943636519</v>
+        <v>753.0101943636537</v>
       </c>
       <c r="G14" t="n">
-        <v>338.7027131747996</v>
+        <v>374.7297709417525</v>
       </c>
       <c r="H14" t="n">
-        <v>97.48584166810105</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I14" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J14" t="n">
         <v>337.4933016076839</v>
       </c>
       <c r="K14" t="n">
-        <v>766.6831886951452</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L14" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M14" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N14" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889757</v>
       </c>
       <c r="O14" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233289</v>
       </c>
       <c r="P14" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q14" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R14" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S14" t="n">
-        <v>4156.161510599079</v>
+        <v>4156.16151059908</v>
       </c>
       <c r="T14" t="n">
-        <v>3953.532414632628</v>
+        <v>3953.53241463263</v>
       </c>
       <c r="U14" t="n">
-        <v>3700.063135423757</v>
+        <v>3700.063135423758</v>
       </c>
       <c r="V14" t="n">
-        <v>3369.000248080186</v>
+        <v>3369.000248080188</v>
       </c>
       <c r="W14" t="n">
-        <v>3016.231592810072</v>
+        <v>3016.231592810073</v>
       </c>
       <c r="X14" t="n">
-        <v>2642.765834548992</v>
+        <v>2642.765834548994</v>
       </c>
       <c r="Y14" t="n">
-        <v>2252.62650257318</v>
+        <v>2252.626502573182</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I15" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J15" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="K15" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="L15" t="n">
-        <v>301.7509472448914</v>
+        <v>301.7509472448904</v>
       </c>
       <c r="M15" t="n">
-        <v>850.6694118551806</v>
+        <v>850.6694118551798</v>
       </c>
       <c r="N15" t="n">
-        <v>1428.524759781583</v>
+        <v>1428.524759781582</v>
       </c>
       <c r="O15" t="n">
         <v>1934.929714729833</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.031270281989</v>
+        <v>2322.031270281988</v>
       </c>
       <c r="Q15" t="n">
-        <v>2530.879212293269</v>
+        <v>2530.879212293268</v>
       </c>
       <c r="R15" t="n">
         <v>2555.644190323788</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>335.1441411914584</v>
+        <v>335.1441411914589</v>
       </c>
       <c r="C16" t="n">
-        <v>252.340106857179</v>
+        <v>166.2079582635519</v>
       </c>
       <c r="D16" t="n">
-        <v>252.340106857179</v>
+        <v>166.2079582635519</v>
       </c>
       <c r="E16" t="n">
-        <v>252.340106857179</v>
+        <v>166.2079582635519</v>
       </c>
       <c r="F16" t="n">
-        <v>252.340106857179</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="G16" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="H16" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I16" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J16" t="n">
-        <v>153.8801783755867</v>
+        <v>153.8801783755868</v>
       </c>
       <c r="K16" t="n">
-        <v>396.9405013869776</v>
+        <v>396.9405013869778</v>
       </c>
       <c r="L16" t="n">
-        <v>763.5004667042033</v>
+        <v>763.5004667042035</v>
       </c>
       <c r="M16" t="n">
         <v>1160.375677726126</v>
       </c>
       <c r="N16" t="n">
-        <v>1553.248699711514</v>
+        <v>1553.248699711515</v>
       </c>
       <c r="O16" t="n">
         <v>1900.114228341785</v>
@@ -5467,19 +5467,19 @@
         <v>1798.760544521729</v>
       </c>
       <c r="U16" t="n">
-        <v>1509.676394306093</v>
+        <v>1509.676394306094</v>
       </c>
       <c r="V16" t="n">
-        <v>1254.991906100206</v>
+        <v>1254.991906100207</v>
       </c>
       <c r="W16" t="n">
-        <v>965.5747360632456</v>
+        <v>965.5747360632461</v>
       </c>
       <c r="X16" t="n">
-        <v>737.5851851652283</v>
+        <v>737.5851851652287</v>
       </c>
       <c r="Y16" t="n">
-        <v>516.7926060216981</v>
+        <v>516.7926060216986</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112808</v>
       </c>
       <c r="C17" t="n">
         <v>1784.429621497864</v>
@@ -5504,61 +5504,61 @@
         <v>725.1782574796675</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J17" t="n">
-        <v>337.4933016076834</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L17" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M17" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O17" t="n">
         <v>3311.067850233288</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924549</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283567</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400164</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W17" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437416</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501805</v>
       </c>
       <c r="Y17" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851462</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J18" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="K18" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="L18" t="n">
-        <v>301.7509472448914</v>
+        <v>301.7509472448904</v>
       </c>
       <c r="M18" t="n">
-        <v>850.6694118551806</v>
+        <v>850.6694118551798</v>
       </c>
       <c r="N18" t="n">
-        <v>1428.524759781583</v>
+        <v>1428.524759781582</v>
       </c>
       <c r="O18" t="n">
         <v>1934.929714729833</v>
       </c>
       <c r="P18" t="n">
-        <v>2322.031270281989</v>
+        <v>2322.031270281988</v>
       </c>
       <c r="Q18" t="n">
-        <v>2530.879212293269</v>
+        <v>2530.879212293268</v>
       </c>
       <c r="R18" t="n">
         <v>2555.644190323788</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.862419750209</v>
+        <v>872.8624197502105</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477707</v>
+        <v>735.8557341477722</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609036</v>
+        <v>617.668592060905</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039791</v>
+        <v>501.6849958039805</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315374</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749432</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897919</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M19" t="n">
         <v>1285.552079040893</v>
@@ -5686,37 +5686,37 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P19" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R19" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112808</v>
       </c>
       <c r="C20" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497865</v>
       </c>
       <c r="D20" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E20" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943808</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796684</v>
       </c>
       <c r="G20" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162848</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I20" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L20" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M20" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O20" t="n">
         <v>3311.067850233288</v>
       </c>
       <c r="P20" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924549</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283567</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400164</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W20" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437416</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501805</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I21" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J21" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="K21" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="L21" t="n">
-        <v>301.7509472448914</v>
+        <v>538.7790385694437</v>
       </c>
       <c r="M21" t="n">
-        <v>850.6694118551806</v>
+        <v>850.6694118551798</v>
       </c>
       <c r="N21" t="n">
-        <v>1428.524759781583</v>
+        <v>1428.524759781582</v>
       </c>
       <c r="O21" t="n">
         <v>1934.929714729833</v>
       </c>
       <c r="P21" t="n">
-        <v>2322.031270281989</v>
+        <v>2322.031270281988</v>
       </c>
       <c r="Q21" t="n">
-        <v>2530.879212293269</v>
+        <v>2530.879212293268</v>
       </c>
       <c r="R21" t="n">
         <v>2555.644190323788</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477714</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039797</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315387</v>
+        <v>386.724545631538</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749438</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897933</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I22" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443608</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M22" t="n">
         <v>1285.552079040893</v>
@@ -5923,13 +5923,13 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O22" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P22" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q22" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R22" t="n">
         <v>2487.049233352543</v>
@@ -5972,10 +5972,10 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E23" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F23" t="n">
-        <v>725.178257479668</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G23" t="n">
         <v>342.8002736162839</v>
@@ -5990,16 +5990,16 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951454</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L23" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O23" t="n">
         <v>3311.067850233288</v>
@@ -6020,19 +6020,19 @@
         <v>4017.391409283567</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W23" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="24">
@@ -6072,7 +6072,7 @@
         <v>84.98040897511626</v>
       </c>
       <c r="L24" t="n">
-        <v>538.7790385694437</v>
+        <v>301.7509472448904</v>
       </c>
       <c r="M24" t="n">
         <v>850.6694118551798</v>
@@ -6121,43 +6121,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502106</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477723</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609051</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0574709897932</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I25" t="n">
         <v>84.98040897511626</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042783</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M25" t="n">
         <v>1285.552079040894</v>
       </c>
       <c r="N25" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O25" t="n">
         <v>2087.878830313936</v>
@@ -6169,10 +6169,10 @@
         <v>2529.521427597206</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T25" t="n">
         <v>2144.901839127669</v>
@@ -6190,7 +6190,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y25" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2121.462641112808</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C26" t="n">
-        <v>1784.429621497865</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D26" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E26" t="n">
-        <v>1104.234664943808</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796684</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I26" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076843</v>
+        <v>337.4933016076838</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L26" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M26" t="n">
         <v>2001.213713746739</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889757</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O26" t="n">
-        <v>3311.067850233289</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P26" t="n">
         <v>3813.656640612705</v>
@@ -6248,28 +6248,28 @@
         <v>4142.90714476723</v>
       </c>
       <c r="R26" t="n">
-        <v>4249.020448755813</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924549</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283567</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400164</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W26" t="n">
-        <v>3175.879079437416</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501805</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.132983851462</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="27">
@@ -6297,16 +6297,16 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H27" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I27" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J27" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="K27" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="L27" t="n">
         <v>301.7509472448904</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502083</v>
+        <v>872.8624197502105</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477699</v>
+        <v>735.8557341477722</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609027</v>
+        <v>617.668592060905</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039782</v>
+        <v>501.6849958039805</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315388</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749446</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H28" t="n">
         <v>140.0574709897932</v>
       </c>
       <c r="I28" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M28" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P28" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.7471862375</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073041</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="29">
@@ -6446,13 +6446,13 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796676</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G29" t="n">
-        <v>342.800273616284</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H29" t="n">
         <v>84.98040897511625</v>
@@ -6461,13 +6461,13 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076838</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951454</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L29" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M29" t="n">
         <v>2001.213713746739</v>
@@ -6491,22 +6491,22 @@
         <v>4188.091007924548</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W29" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="30">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502083</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477699</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609027</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039781</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315362</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749419</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H31" t="n">
         <v>140.0574709897932</v>
@@ -6619,52 +6619,52 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M31" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N31" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.7471862375</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073041</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="32">
@@ -6674,49 +6674,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112808</v>
       </c>
       <c r="C32" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497865</v>
       </c>
       <c r="D32" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216584</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943808</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796691</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162855</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511794</v>
       </c>
       <c r="I32" t="n">
         <v>84.98040897511626</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076843</v>
       </c>
       <c r="K32" t="n">
         <v>766.6831886951454</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889757</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O32" t="n">
         <v>3311.067850233289</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q32" t="n">
         <v>4142.90714476723</v>
@@ -6731,19 +6731,19 @@
         <v>4017.391409283567</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400164</v>
       </c>
       <c r="V32" t="n">
         <v>3496.718237382061</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437416</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501805</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.132983851462</v>
       </c>
     </row>
     <row r="33">
@@ -6780,10 +6780,10 @@
         <v>84.98040897511626</v>
       </c>
       <c r="K33" t="n">
-        <v>84.98040897511626</v>
+        <v>301.7509472448904</v>
       </c>
       <c r="L33" t="n">
-        <v>538.7790385694437</v>
+        <v>301.7509472448904</v>
       </c>
       <c r="M33" t="n">
         <v>850.6694118551798</v>
@@ -6832,43 +6832,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502106</v>
       </c>
       <c r="C34" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477723</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609052</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039808</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315385</v>
+        <v>386.724545631539</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749449</v>
       </c>
       <c r="H34" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I34" t="n">
         <v>84.98040897511626</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042786</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902788</v>
+        <v>857.382767690279</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O34" t="n">
         <v>2087.878830313936</v>
@@ -6877,16 +6877,16 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U34" t="n">
         <v>1887.747186237502</v>
@@ -6901,7 +6901,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y34" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2121.462641112808</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.429621497865</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943808</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796684</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G35" t="n">
         <v>342.8002736162839</v>
@@ -6935,7 +6935,7 @@
         <v>84.98040897511626</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076843</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K35" t="n">
         <v>766.6831886951454</v>
@@ -6944,7 +6944,7 @@
         <v>1336.032957050964</v>
       </c>
       <c r="M35" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N35" t="n">
         <v>2681.771598889757</v>
@@ -6953,7 +6953,7 @@
         <v>3311.067850233289</v>
       </c>
       <c r="P35" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612706</v>
       </c>
       <c r="Q35" t="n">
         <v>4142.90714476723</v>
@@ -6965,7 +6965,7 @@
         <v>4188.091007924549</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283567</v>
       </c>
       <c r="U35" t="n">
         <v>3795.851627400164</v>
@@ -7020,10 +7020,10 @@
         <v>84.98040897511626</v>
       </c>
       <c r="L36" t="n">
-        <v>301.7509472448904</v>
+        <v>538.7790385694437</v>
       </c>
       <c r="M36" t="n">
-        <v>850.6694118551798</v>
+        <v>1087.697503179733</v>
       </c>
       <c r="N36" t="n">
         <v>1428.524759781582</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502108</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477724</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609052</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039807</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315388</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749446</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H37" t="n">
         <v>140.0574709897932</v>
@@ -7093,52 +7093,52 @@
         <v>84.98040897511626</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042812</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443638</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902813</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M37" t="n">
-        <v>1285.552079040896</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N37" t="n">
-        <v>1709.719201354976</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O37" t="n">
-        <v>2087.878830313938</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P37" t="n">
-        <v>2392.455631028691</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597207</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R37" t="n">
         <v>2487.049233352544</v>
       </c>
       <c r="S37" t="n">
-        <v>2333.272818966198</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357085</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W37" t="n">
         <v>1407.504522645592</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073044</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y37" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2121.462641112808</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C38" t="n">
         <v>1784.429621497864</v>
@@ -7157,13 +7157,13 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E38" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F38" t="n">
         <v>725.1782574796675</v>
       </c>
       <c r="G38" t="n">
-        <v>342.800273616284</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H38" t="n">
         <v>84.98040897511626</v>
@@ -7175,19 +7175,19 @@
         <v>337.4933016076843</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L38" t="n">
         <v>1336.032957050964</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N38" t="n">
         <v>2681.771598889757</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233289</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P38" t="n">
         <v>3813.656640612705</v>
@@ -7202,22 +7202,22 @@
         <v>4188.091007924549</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283567</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.851627400164</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W38" t="n">
-        <v>3175.879079437416</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501805</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="39">
@@ -7257,7 +7257,7 @@
         <v>84.98040897511626</v>
       </c>
       <c r="L39" t="n">
-        <v>301.7509472448904</v>
+        <v>538.7790385694437</v>
       </c>
       <c r="M39" t="n">
         <v>850.6694118551798</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502115</v>
+        <v>872.8624197502106</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477731</v>
+        <v>735.8557341477723</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609058</v>
+        <v>617.6685920609051</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039811</v>
+        <v>501.6849958039805</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315392</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749448</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H40" t="n">
-        <v>140.0574709897934</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I40" t="n">
         <v>84.98040897511626</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042783</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443609</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902827</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040897</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N40" t="n">
-        <v>1709.719201354977</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313939</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028692</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597208</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352546</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966199</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127671</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237504</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357086</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.504522645593</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073045</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y40" t="n">
-        <v>1022.581387254983</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="41">
@@ -7424,13 +7424,13 @@
         <v>2681.771598889756</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.90714476723</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R41" t="n">
         <v>4249.020448755811</v>
@@ -7491,10 +7491,10 @@
         <v>84.98040897511622</v>
       </c>
       <c r="K42" t="n">
-        <v>301.7509472448904</v>
+        <v>388.0214583249808</v>
       </c>
       <c r="L42" t="n">
-        <v>301.7509472448904</v>
+        <v>841.8200879193082</v>
       </c>
       <c r="M42" t="n">
         <v>850.6694118551798</v>
@@ -7567,25 +7567,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042771</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443598</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902774</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M43" t="n">
-        <v>1285.552079040892</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N43" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O43" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P43" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q43" t="n">
         <v>2529.521427597205</v>
@@ -7625,7 +7625,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C44" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D44" t="n">
         <v>1458.093420216582</v>
@@ -7634,16 +7634,16 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G44" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J44" t="n">
         <v>337.4933016076837</v>
@@ -7661,22 +7661,22 @@
         <v>2681.771598889755</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P44" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R44" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U44" t="n">
         <v>3795.851627400162</v>
@@ -7719,16 +7719,16 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H45" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177173</v>
       </c>
       <c r="I45" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J45" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="K45" t="n">
-        <v>84.98040897511625</v>
+        <v>301.7509472448904</v>
       </c>
       <c r="L45" t="n">
         <v>301.7509472448904</v>
@@ -7795,28 +7795,28 @@
         <v>386.7245456315385</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H46" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I46" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042771</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443598</v>
+        <v>459.5287020443607</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902774</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M46" t="n">
-        <v>1285.552079040892</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N46" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O46" t="n">
         <v>2087.878830313935</v>
@@ -7834,10 +7834,10 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V46" t="n">
         <v>1664.992195357083</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>58.90270220619882</v>
+        <v>58.90270220619944</v>
       </c>
       <c r="K5" t="n">
-        <v>37.02885312542705</v>
+        <v>37.02885312542793</v>
       </c>
       <c r="L5" t="n">
-        <v>8.663059690052933</v>
+        <v>8.66305969005407</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8231,10 +8231,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>33.35653556166164</v>
+        <v>46.63627167267671</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.24732050226447</v>
+        <v>75.96758439125</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>54.08997212928939</v>
+        <v>54.08997212928975</v>
       </c>
       <c r="K6" t="n">
-        <v>13.5041102940461</v>
+        <v>13.50411029404671</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>41.69257035101251</v>
+        <v>41.69257035101299</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>54.01347304959998</v>
+        <v>54.01347304960035</v>
       </c>
       <c r="L7" t="n">
-        <v>38.9107728487048</v>
+        <v>61.26078050223707</v>
       </c>
       <c r="M7" t="n">
-        <v>59.18173635348373</v>
+        <v>59.18173635348305</v>
       </c>
       <c r="N7" t="n">
-        <v>51.2506238761444</v>
+        <v>51.25062387614366</v>
       </c>
       <c r="O7" t="n">
-        <v>69.56267606935826</v>
+        <v>47.21266841582569</v>
       </c>
       <c r="P7" t="n">
-        <v>82.00311802123116</v>
+        <v>82.00311802123032</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>-1.122657522500958e-12</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>-1.905828066249666e-12</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -22550,7 +22550,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22562,7 +22562,7 @@
         <v>13.99145537648747</v>
       </c>
       <c r="H2" t="n">
-        <v>226.8770661998382</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22601,7 +22601,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>211.8290071420559</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23258,13 +23258,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>167.8579417260433</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>296.7574771839087</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23273,10 +23273,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>105.0742887270135</v>
+        <v>53.73645647354699</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23434,7 +23434,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23507,13 +23507,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>35.66678718928154</v>
       </c>
       <c r="H14" t="n">
-        <v>48.0471655553383</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>85.2708271076912</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>65.00577422737993</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.6861009032421</v>
       </c>
       <c r="H16" t="n">
         <v>141.7347076965137</v>
       </c>
       <c r="I16" t="n">
-        <v>86.13649374674407</v>
+        <v>86.13649374674405</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-1.204026273936473e-12</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.215028078149771e-12</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>2.486899575160351e-12</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>2.657429831742775e-12</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1377005.07749468</v>
+        <v>1377005.077494679</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1206298.669663482</v>
+        <v>1206298.669663481</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1354609.391680052</v>
+        <v>1354609.391680053</v>
       </c>
     </row>
     <row r="7">
@@ -26366,43 +26366,43 @@
         <v>314312.6682228162</v>
       </c>
       <c r="C3" t="n">
-        <v>36176.64952019406</v>
+        <v>36176.64952019206</v>
       </c>
       <c r="D3" t="n">
-        <v>129055.9169448056</v>
+        <v>129055.9169448075</v>
       </c>
       <c r="E3" t="n">
-        <v>707780.857642954</v>
+        <v>707780.8576429536</v>
       </c>
       <c r="F3" t="n">
-        <v>215052.1096963077</v>
+        <v>215052.1096963085</v>
       </c>
       <c r="G3" t="n">
-        <v>25288.16188177114</v>
+        <v>25288.16188177111</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>8.682081897859461e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>5752.176769774452</v>
+        <v>5752.176769774173</v>
       </c>
       <c r="L3" t="n">
-        <v>48006.2813584079</v>
+        <v>48006.28135840829</v>
       </c>
       <c r="M3" t="n">
-        <v>179249.6449383016</v>
+        <v>179249.6449383014</v>
       </c>
       <c r="N3" t="n">
-        <v>56542.29359578608</v>
+        <v>56542.29359578642</v>
       </c>
       <c r="O3" t="n">
-        <v>3.267314241384156e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>328632.5187030794</v>
+        <v>328632.5187030793</v>
       </c>
       <c r="C4" t="n">
-        <v>345093.2128805839</v>
+        <v>345093.2128805845</v>
       </c>
       <c r="D4" t="n">
         <v>304173.8599471605</v>
@@ -26430,34 +26430,34 @@
         <v>13549.54182386384</v>
       </c>
       <c r="G4" t="n">
-        <v>44619.42690608387</v>
+        <v>44619.42690608383</v>
       </c>
       <c r="H4" t="n">
-        <v>44619.42690608386</v>
+        <v>44619.42690608383</v>
       </c>
       <c r="I4" t="n">
-        <v>44619.42690608381</v>
+        <v>44619.42690608377</v>
       </c>
       <c r="J4" t="n">
         <v>44619.42690608378</v>
       </c>
       <c r="K4" t="n">
-        <v>44619.42690608376</v>
+        <v>44619.42690608385</v>
       </c>
       <c r="L4" t="n">
-        <v>44619.42690608381</v>
+        <v>44619.42690608379</v>
       </c>
       <c r="M4" t="n">
-        <v>44619.42690608381</v>
+        <v>44619.42690608375</v>
       </c>
       <c r="N4" t="n">
-        <v>44619.42690608373</v>
+        <v>44619.42690608375</v>
       </c>
       <c r="O4" t="n">
-        <v>44619.42690608378</v>
+        <v>44619.42690608379</v>
       </c>
       <c r="P4" t="n">
-        <v>44619.42690608386</v>
+        <v>44619.42690608387</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26470,22 @@
         <v>40738.35521735115</v>
       </c>
       <c r="C5" t="n">
-        <v>42790.44871680741</v>
+        <v>42790.4487168073</v>
       </c>
       <c r="D5" t="n">
         <v>50823.3731117227</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>92448.996000607</v>
+        <v>92448.99600060703</v>
       </c>
       <c r="G5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215531</v>
       </c>
       <c r="H5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215531</v>
       </c>
       <c r="I5" t="n">
         <v>95106.43410215531</v>
@@ -26500,16 +26500,16 @@
         <v>95106.43410215531</v>
       </c>
       <c r="M5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215531</v>
       </c>
       <c r="N5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215531</v>
       </c>
       <c r="O5" t="n">
         <v>95106.43410215528</v>
       </c>
       <c r="P5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-683683.5421432467</v>
+        <v>-683803.4252374255</v>
       </c>
       <c r="C6" t="n">
-        <v>-424060.3111175854</v>
+        <v>-424060.3111175839</v>
       </c>
       <c r="D6" t="n">
-        <v>-484053.1500036888</v>
+        <v>-484053.1500036907</v>
       </c>
       <c r="E6" t="n">
-        <v>-795517.2650965126</v>
+        <v>-795864.8840263183</v>
       </c>
       <c r="F6" t="n">
-        <v>-321050.6475207786</v>
+        <v>-321186.3939905618</v>
       </c>
       <c r="G6" t="n">
         <v>-165014.0228900103</v>
       </c>
       <c r="H6" t="n">
+        <v>-139725.8610082392</v>
+      </c>
+      <c r="I6" t="n">
         <v>-139725.8610082391</v>
       </c>
-      <c r="I6" t="n">
-        <v>-139725.8610082392</v>
-      </c>
       <c r="J6" t="n">
+        <v>-139725.8610082391</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-145478.0377780133</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-187732.1423666474</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-318975.5059465405</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-196268.1546040255</v>
+      </c>
+      <c r="O6" t="n">
         <v>-139725.861008239</v>
-      </c>
-      <c r="K6" t="n">
-        <v>-145478.0377780135</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-187732.142366647</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-318975.5059465406</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-196268.1546040251</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-139725.8610082391</v>
       </c>
       <c r="P6" t="n">
         <v>-139725.8610082392</v>
@@ -26698,28 +26698,28 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H2" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I2" t="n">
+        <v>31.6102023522139</v>
+      </c>
+      <c r="J2" t="n">
+        <v>31.61020235221389</v>
+      </c>
+      <c r="K2" t="n">
+        <v>31.61020235221391</v>
+      </c>
+      <c r="L2" t="n">
+        <v>31.61020235221394</v>
+      </c>
+      <c r="M2" t="n">
         <v>31.61020235221388</v>
       </c>
-      <c r="J2" t="n">
-        <v>31.61020235221384</v>
-      </c>
-      <c r="K2" t="n">
-        <v>31.61020235221381</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>31.61020235221388</v>
-      </c>
-      <c r="M2" t="n">
-        <v>31.61020235221383</v>
-      </c>
-      <c r="N2" t="n">
-        <v>31.61020235221372</v>
       </c>
       <c r="O2" t="n">
         <v>31.61020235221394</v>
@@ -26738,7 +26738,7 @@
         <v>326.1814319885848</v>
       </c>
       <c r="C3" t="n">
-        <v>357.9801950216793</v>
+        <v>357.9801950216775</v>
       </c>
       <c r="D3" t="n">
         <v>476.1157511985021</v>
@@ -26790,13 +26790,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>22.35000765353303</v>
+        <v>22.3500076535318</v>
       </c>
       <c r="D4" t="n">
         <v>112.1126601249236</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>1062.255112188953</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.77635683940025e-13</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,16 +26960,16 @@
         <v>326.1814319885848</v>
       </c>
       <c r="C3" t="n">
-        <v>31.79876303309447</v>
+        <v>31.79876303309271</v>
       </c>
       <c r="D3" t="n">
-        <v>118.1355561768228</v>
+        <v>118.1355561768246</v>
       </c>
       <c r="E3" t="n">
-        <v>613.6609493947963</v>
+        <v>613.660949394796</v>
       </c>
       <c r="F3" t="n">
-        <v>188.3831700268245</v>
+        <v>188.3831700268252</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>22.35000765353302</v>
+        <v>22.3500076535318</v>
       </c>
       <c r="D4" t="n">
-        <v>89.76265247139057</v>
+        <v>89.76265247139179</v>
       </c>
       <c r="E4" t="n">
-        <v>719.2887952773694</v>
+        <v>719.288795277369</v>
       </c>
       <c r="F4" t="n">
-        <v>230.8536567866597</v>
+        <v>230.8536567866606</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,22 +27030,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.35000765353288</v>
+        <v>22.3500076535318</v>
       </c>
       <c r="L4" t="n">
-        <v>89.76265247139058</v>
+        <v>89.76265247139236</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773694</v>
+        <v>719.288795277369</v>
       </c>
       <c r="N4" t="n">
-        <v>230.8536567866597</v>
+        <v>230.8536567866606</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.35000765353302</v>
+        <v>22.3500076535318</v>
       </c>
       <c r="L4" t="n">
-        <v>89.76265247139057</v>
+        <v>89.76265247139179</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773694</v>
+        <v>719.288795277369</v>
       </c>
       <c r="N4" t="n">
-        <v>230.8536567866597</v>
+        <v>230.8536567866606</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>99.16856771350447</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I2" t="n">
         <v>159.9226849201952</v>
@@ -27433,7 +27433,7 @@
         <v>217.3557120022016</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2407503367447</v>
+        <v>39.4117431946888</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>361.437614163666</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>391.513613499707</v>
       </c>
       <c r="H5" t="n">
-        <v>324.7364516744977</v>
+        <v>324.7364516744978</v>
       </c>
       <c r="I5" t="n">
-        <v>154.9943560284027</v>
+        <v>154.994356028403</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>59.46922477318762</v>
+        <v>37.11921711965626</v>
       </c>
       <c r="S5" t="n">
-        <v>153.8761978360027</v>
+        <v>176.2262054895359</v>
       </c>
       <c r="T5" t="n">
-        <v>216.7961176899308</v>
+        <v>194.446110036399</v>
       </c>
       <c r="U5" t="n">
-        <v>228.8805159453518</v>
+        <v>251.2305235988848</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>356.9212596789497</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27710,10 +27710,10 @@
         <v>136.5735220267489</v>
       </c>
       <c r="H6" t="n">
-        <v>104.7989122606687</v>
+        <v>104.7989122606688</v>
       </c>
       <c r="I6" t="n">
-        <v>62.88583538990392</v>
+        <v>62.88583538990405</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>52.3505922589932</v>
+        <v>30.00058460546163</v>
       </c>
       <c r="S6" t="n">
-        <v>157.3808491612264</v>
+        <v>157.3808491612265</v>
       </c>
       <c r="T6" t="n">
-        <v>174.7111002938836</v>
+        <v>197.0611079474167</v>
       </c>
       <c r="U6" t="n">
         <v>225.8907245062076</v>
       </c>
       <c r="V6" t="n">
-        <v>213.1147004081934</v>
+        <v>213.1147004081945</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>229.3449755073878</v>
       </c>
       <c r="X6" t="n">
-        <v>183.4229775499444</v>
+        <v>183.4229775499457</v>
       </c>
       <c r="Y6" t="n">
-        <v>183.3326881237713</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27789,13 +27789,13 @@
         <v>167.3454413018623</v>
       </c>
       <c r="H7" t="n">
-        <v>156.4877523315182</v>
+        <v>156.4877523315183</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0373850070662</v>
+        <v>136.0373850070663</v>
       </c>
       <c r="J7" t="n">
-        <v>47.7196395153023</v>
+        <v>47.71963951530252</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>32.10703380342082</v>
+        <v>9.757026149889278</v>
       </c>
       <c r="R7" t="n">
-        <v>125.9176452879443</v>
+        <v>148.2676529414774</v>
       </c>
       <c r="S7" t="n">
-        <v>190.4166226152989</v>
+        <v>193.0807435276012</v>
       </c>
       <c r="T7" t="n">
-        <v>225.1873813682784</v>
+        <v>202.8373737147466</v>
       </c>
       <c r="U7" t="n">
-        <v>263.9338105362344</v>
+        <v>286.2838181897674</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>229.7876356702962</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>198.8987666108629</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,7 +27856,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>242.5703814957594</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27871,7 +27871,7 @@
         <v>319.8727099068761</v>
       </c>
       <c r="I8" t="n">
-        <v>58.20104480719453</v>
+        <v>136.685125759028</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>29.63673178547968</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>53.29137858519765</v>
+        <v>165.4040387101213</v>
       </c>
       <c r="T8" t="n">
         <v>214.7171693596231</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1925302541847</v>
+        <v>139.0798701292611</v>
       </c>
       <c r="V8" t="n">
-        <v>215.6395983452113</v>
+        <v>278.9049093037812</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>237.1283085924894</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.12527853113</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27932,7 +27932,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>60.59583886339215</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27977,25 +27977,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>36.5739230774922</v>
       </c>
       <c r="S9" t="n">
         <v>40.54833922112502</v>
       </c>
       <c r="T9" t="n">
-        <v>196.0368949650912</v>
+        <v>97.2880639270585</v>
       </c>
       <c r="U9" t="n">
-        <v>163.6990992499817</v>
+        <v>113.7613470855986</v>
       </c>
       <c r="V9" t="n">
-        <v>120.6879270245017</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>93.66032507855388</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28056,13 +28056,13 @@
         <v>14.26856482072057</v>
       </c>
       <c r="R10" t="n">
-        <v>26.57632952392146</v>
+        <v>138.6889896488451</v>
       </c>
       <c r="S10" t="n">
         <v>209.0540751673406</v>
       </c>
       <c r="T10" t="n">
-        <v>224.2771565911783</v>
+        <v>112.1644964662547</v>
       </c>
       <c r="U10" t="n">
         <v>174.1595381740723</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>187.7741672985583</v>
+        <v>174.4103382116674</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>126.9608243510045</v>
       </c>
       <c r="Y10" t="n">
-        <v>106.4719932271712</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221419</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I20" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I23" t="n">
         <v>12.38037836605491</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221241</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605491</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221434</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605491</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I32" t="n">
-        <v>12.38037836605491</v>
+        <v>12.38037836605322</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221383</v>
+        <v>31.61020235221247</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221383</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221383</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221383</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221383</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221383</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221383</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605491</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221383</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221383</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221383</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221383</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221383</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221383</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221383</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221383</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221383</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221383</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221383</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221383</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221383</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221383</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221383</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221658</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221383</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221383</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221383</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221383</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221383</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221383</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221383</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221383</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221383</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221383</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221383</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221383</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221383</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221383</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221383</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221372</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221372</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221372</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221372</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221372</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221372</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221372</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605491</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221372</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221372</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221372</v>
+        <v>31.61020235221241</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221372</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221372</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221372</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221372</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221372</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221372</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221372</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221372</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221372</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221372</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221372</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221372</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221372</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221372</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="L40" t="n">
-        <v>31.6102023522181</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221372</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221372</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221372</v>
+        <v>31.61020235221423</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221372</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221372</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221372</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221372</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221372</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221372</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221372</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221372</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221372</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221372</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="41">
@@ -30639,7 +30639,7 @@
         <v>31.61020235221394</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221248</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K43" t="n">
         <v>31.61020235221394</v>
@@ -30660,7 +30660,7 @@
         <v>31.61020235221394</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221282</v>
       </c>
       <c r="R43" t="n">
         <v>31.61020235221394</v>
@@ -30876,7 +30876,7 @@
         <v>31.61020235221394</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221245</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K46" t="n">
         <v>31.61020235221394</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.439116361896197</v>
+        <v>1.43911636189619</v>
       </c>
       <c r="H5" t="n">
-        <v>14.73835044126943</v>
+        <v>14.73835044126936</v>
       </c>
       <c r="I5" t="n">
-        <v>55.48153354200318</v>
+        <v>55.48153354200291</v>
       </c>
       <c r="J5" t="n">
-        <v>122.1432023204875</v>
+        <v>122.1432023204868</v>
       </c>
       <c r="K5" t="n">
-        <v>183.0609979195535</v>
+        <v>183.0609979195526</v>
       </c>
       <c r="L5" t="n">
-        <v>227.1033552799343</v>
+        <v>227.1033552799332</v>
       </c>
       <c r="M5" t="n">
-        <v>252.6962408808058</v>
+        <v>252.6962408808045</v>
       </c>
       <c r="N5" t="n">
-        <v>251.7630712501239</v>
+        <v>251.7630712501227</v>
       </c>
       <c r="O5" t="n">
-        <v>242.474916920438</v>
+        <v>242.4749169204368</v>
       </c>
       <c r="P5" t="n">
-        <v>206.9467317361257</v>
+        <v>206.9467317361246</v>
       </c>
       <c r="Q5" t="n">
-        <v>155.408377025718</v>
+        <v>155.4083770257173</v>
       </c>
       <c r="R5" t="n">
-        <v>90.39989316796206</v>
+        <v>90.39989316796162</v>
       </c>
       <c r="S5" t="n">
-        <v>32.79386409670962</v>
+        <v>32.79386409670946</v>
       </c>
       <c r="T5" t="n">
-        <v>6.299731874200606</v>
+        <v>6.299731874200575</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1151293089516957</v>
+        <v>0.1151293089516952</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7699951364617252</v>
+        <v>0.7699951364617215</v>
       </c>
       <c r="H6" t="n">
-        <v>7.436531975827716</v>
+        <v>7.43653197582768</v>
       </c>
       <c r="I6" t="n">
-        <v>26.51079746151116</v>
+        <v>26.51079746151103</v>
       </c>
       <c r="J6" t="n">
-        <v>72.7476545373773</v>
+        <v>72.74765453737695</v>
       </c>
       <c r="K6" t="n">
-        <v>124.3373286803129</v>
+        <v>124.3373286803123</v>
       </c>
       <c r="L6" t="n">
-        <v>146.9404648877954</v>
+        <v>146.940464887795</v>
       </c>
       <c r="M6" t="n">
-        <v>164.4840415755513</v>
+        <v>164.4840415755501</v>
       </c>
       <c r="N6" t="n">
-        <v>153.6917197368663</v>
+        <v>153.6917197368651</v>
       </c>
       <c r="O6" t="n">
-        <v>164.9462520979775</v>
+        <v>164.9462520979762</v>
       </c>
       <c r="P6" t="n">
-        <v>147.0352993476781</v>
+        <v>147.0352993476773</v>
       </c>
       <c r="Q6" t="n">
-        <v>98.28920373500901</v>
+        <v>98.28920373500853</v>
       </c>
       <c r="R6" t="n">
-        <v>47.80724189364994</v>
+        <v>47.8072418936497</v>
       </c>
       <c r="S6" t="n">
-        <v>14.30232194261142</v>
+        <v>14.30232194261135</v>
       </c>
       <c r="T6" t="n">
-        <v>3.103620747404935</v>
+        <v>3.10362074740492</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05065757476721879</v>
+        <v>0.05065757476721854</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6455380565964707</v>
+        <v>0.6455380565964676</v>
       </c>
       <c r="H7" t="n">
-        <v>5.739420175921353</v>
+        <v>5.739420175921325</v>
       </c>
       <c r="I7" t="n">
-        <v>19.41308992019205</v>
+        <v>19.41308992019196</v>
       </c>
       <c r="J7" t="n">
-        <v>45.63954060137048</v>
+        <v>45.63954060137026</v>
       </c>
       <c r="K7" t="n">
-        <v>74.9997851209354</v>
+        <v>74.99978512093503</v>
       </c>
       <c r="L7" t="n">
-        <v>95.97390343253349</v>
+        <v>95.97390343253302</v>
       </c>
       <c r="M7" t="n">
-        <v>101.1910246353904</v>
+        <v>101.1910246353899</v>
       </c>
       <c r="N7" t="n">
-        <v>98.78492824262182</v>
+        <v>98.78492824262133</v>
       </c>
       <c r="O7" t="n">
-        <v>91.24387003601755</v>
+        <v>91.2438700360171</v>
       </c>
       <c r="P7" t="n">
-        <v>78.07489368144948</v>
+        <v>78.0748936814491</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.05500944827357</v>
+        <v>54.0550094482733</v>
       </c>
       <c r="R7" t="n">
-        <v>29.02573843569221</v>
+        <v>29.02573843569207</v>
       </c>
       <c r="S7" t="n">
-        <v>11.24996776814031</v>
+        <v>11.24996776814025</v>
       </c>
       <c r="T7" t="n">
-        <v>2.758208060003101</v>
+        <v>2.758208060003088</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0352111667234439</v>
+        <v>0.03521116672344372</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31607,10 +31607,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>195.6037669583859</v>
+        <v>222.359530783791</v>
       </c>
       <c r="M9" t="n">
-        <v>254.2466940469419</v>
+        <v>227.4909302215368</v>
       </c>
       <c r="N9" t="n">
         <v>243.4543722082569</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H14" t="n">
-        <v>52.62293376879729</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I14" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J14" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K14" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L14" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M14" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N14" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O14" t="n">
-        <v>865.7509905565677</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P14" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q14" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R14" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S14" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T14" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,13 +32066,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H15" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I15" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32081,34 +32081,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>357.5145194463138</v>
+        <v>357.5145194463128</v>
       </c>
       <c r="M15" t="n">
-        <v>696.5971294879669</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N15" t="n">
-        <v>715.0339827160628</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O15" t="n">
-        <v>654.1164009578283</v>
+        <v>654.1164009578285</v>
       </c>
       <c r="P15" t="n">
-        <v>524.986079689235</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q15" t="n">
-        <v>350.9392912691326</v>
+        <v>350.9392912691328</v>
       </c>
       <c r="R15" t="n">
         <v>170.6946332877214</v>
       </c>
       <c r="S15" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T15" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,40 +32151,40 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I16" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J16" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K16" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L16" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M16" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N16" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O16" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P16" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q16" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R16" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S16" t="n">
-        <v>40.16774544227498</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T16" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U16" t="n">
         <v>0.1257206430118155</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H17" t="n">
-        <v>52.62293376879729</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I17" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K17" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L17" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N17" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O17" t="n">
-        <v>865.7509905565677</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R17" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S17" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T17" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,13 +32303,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H18" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
@@ -32318,34 +32318,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>357.5145194463138</v>
+        <v>357.5145194463128</v>
       </c>
       <c r="M18" t="n">
-        <v>696.5971294879669</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N18" t="n">
-        <v>715.0339827160628</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578283</v>
+        <v>654.1164009578285</v>
       </c>
       <c r="P18" t="n">
-        <v>524.986079689235</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q18" t="n">
-        <v>350.9392912691326</v>
+        <v>350.9392912691328</v>
       </c>
       <c r="R18" t="n">
         <v>170.6946332877214</v>
       </c>
       <c r="S18" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T18" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,40 +32388,40 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I19" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J19" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K19" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L19" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M19" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N19" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O19" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P19" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q19" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R19" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S19" t="n">
-        <v>40.16774544227498</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U19" t="n">
         <v>0.1257206430118155</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H20" t="n">
-        <v>52.62293376879729</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I20" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J20" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K20" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L20" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M20" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N20" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O20" t="n">
-        <v>865.7509905565677</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P20" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q20" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R20" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S20" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T20" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,13 +32540,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H21" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I21" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
@@ -32555,34 +32555,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>357.5145194463138</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M21" t="n">
-        <v>696.5971294879669</v>
+        <v>457.1748150187213</v>
       </c>
       <c r="N21" t="n">
-        <v>715.0339827160628</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O21" t="n">
-        <v>654.1164009578283</v>
+        <v>654.1164009578285</v>
       </c>
       <c r="P21" t="n">
-        <v>524.986079689235</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9392912691326</v>
+        <v>350.9392912691328</v>
       </c>
       <c r="R21" t="n">
         <v>170.6946332877214</v>
       </c>
       <c r="S21" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T21" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,40 +32625,40 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I22" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J22" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K22" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L22" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M22" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N22" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O22" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P22" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q22" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R22" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S22" t="n">
-        <v>40.16774544227498</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T22" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U22" t="n">
         <v>0.1257206430118155</v>
@@ -32792,10 +32792,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>596.9368339155585</v>
+        <v>357.5145194463128</v>
       </c>
       <c r="M24" t="n">
-        <v>457.1748150187213</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N24" t="n">
         <v>715.0339827160632</v>
@@ -33500,13 +33500,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>356.8015786407975</v>
       </c>
       <c r="L33" t="n">
-        <v>596.9368339155585</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>457.1748150187213</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N33" t="n">
         <v>715.0339827160632</v>
@@ -33740,13 +33740,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>357.5145194463128</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M36" t="n">
         <v>696.5971294879671</v>
       </c>
       <c r="N36" t="n">
-        <v>715.0339827160632</v>
+        <v>475.6116682468174</v>
       </c>
       <c r="O36" t="n">
         <v>654.1164009578285</v>
@@ -33977,10 +33977,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>357.5145194463128</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M39" t="n">
-        <v>696.5971294879671</v>
+        <v>457.1748150187213</v>
       </c>
       <c r="N39" t="n">
         <v>715.0339827160632</v>
@@ -34211,13 +34211,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>356.8015786407976</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M42" t="n">
-        <v>696.5971294879671</v>
+        <v>151.0727449683532</v>
       </c>
       <c r="N42" t="n">
         <v>715.0339827160632</v>
@@ -34375,7 +34375,7 @@
         <v>810.8671910869754</v>
       </c>
       <c r="M44" t="n">
-        <v>902.2459874654299</v>
+        <v>902.2459874654288</v>
       </c>
       <c r="N44" t="n">
         <v>916.8452708117594</v>
@@ -34448,10 +34448,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>356.8015786407976</v>
       </c>
       <c r="L45" t="n">
-        <v>357.5145194463128</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>696.5971294879671</v>
@@ -34942,19 +34942,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>22.35000765353303</v>
+        <v>22.3500076535318</v>
       </c>
       <c r="N5" t="n">
-        <v>22.35000765353303</v>
+        <v>22.3500076535318</v>
       </c>
       <c r="O5" t="n">
-        <v>12.37670549875131</v>
+        <v>12.37670549875011</v>
       </c>
       <c r="P5" t="n">
-        <v>9.070271542517755</v>
+        <v>22.3500076535318</v>
       </c>
       <c r="Q5" t="n">
-        <v>22.35000765353303</v>
+        <v>9.070271542517784</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>8.386085107921252</v>
+        <v>8.38608510792081</v>
       </c>
       <c r="M6" t="n">
-        <v>22.35000765353303</v>
+        <v>22.3500076535318</v>
       </c>
       <c r="N6" t="n">
-        <v>22.35000765353303</v>
+        <v>22.3500076535318</v>
       </c>
       <c r="O6" t="n">
-        <v>22.35000765353303</v>
+        <v>22.3500076535318</v>
       </c>
       <c r="P6" t="n">
-        <v>13.06089193334782</v>
+        <v>13.06089193334708</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>22.3500076535318</v>
       </c>
       <c r="M7" t="n">
-        <v>21.44697704126907</v>
+        <v>21.44697704126789</v>
       </c>
       <c r="N7" t="n">
-        <v>22.35000765353303</v>
+        <v>22.3500076535318</v>
       </c>
       <c r="O7" t="n">
-        <v>22.35000765353303</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>22.35000765353303</v>
+        <v>22.3500076535318</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35255,10 +35255,10 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>57.04938717851175</v>
+        <v>83.80515100391685</v>
       </c>
       <c r="M9" t="n">
-        <v>112.1126601249236</v>
+        <v>85.3568962995185</v>
       </c>
       <c r="N9" t="n">
         <v>112.1126601249236</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K14" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L14" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M14" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N14" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O14" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P14" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q14" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R14" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>218.9601396664396</v>
+        <v>218.9601396664386</v>
       </c>
       <c r="M15" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N15" t="n">
-        <v>583.6922706327296</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O15" t="n">
-        <v>511.5201565133839</v>
+        <v>511.5201565133841</v>
       </c>
       <c r="P15" t="n">
-        <v>391.0116722749048</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.9575171831111</v>
+        <v>210.9575171831112</v>
       </c>
       <c r="R15" t="n">
-        <v>25.01512932375741</v>
+        <v>25.01512932375749</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>69.59572666714186</v>
+        <v>69.59572666714192</v>
       </c>
       <c r="K16" t="n">
         <v>245.5154777892838</v>
       </c>
       <c r="L16" t="n">
-        <v>370.2625912295209</v>
+        <v>370.262591229521</v>
       </c>
       <c r="M16" t="n">
-        <v>400.8840515372959</v>
+        <v>400.884051537296</v>
       </c>
       <c r="N16" t="n">
-        <v>396.8414363488768</v>
+        <v>396.8414363488769</v>
       </c>
       <c r="O16" t="n">
-        <v>350.3692208386573</v>
+        <v>350.3692208386574</v>
       </c>
       <c r="P16" t="n">
-        <v>276.0431317030919</v>
+        <v>276.043131703092</v>
       </c>
       <c r="Q16" t="n">
         <v>106.8400972119442</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K17" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L17" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N17" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P17" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R17" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>218.9601396664396</v>
+        <v>218.9601396664386</v>
       </c>
       <c r="M18" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N18" t="n">
-        <v>583.6922706327296</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O18" t="n">
-        <v>511.5201565133839</v>
+        <v>511.5201565133841</v>
       </c>
       <c r="P18" t="n">
-        <v>391.0116722749048</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.9575171831111</v>
+        <v>210.9575171831112</v>
       </c>
       <c r="R18" t="n">
-        <v>25.01512932375741</v>
+        <v>25.01512932375749</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36045,22 +36045,22 @@
         <v>277.1256801414977</v>
       </c>
       <c r="L19" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M19" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O19" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P19" t="n">
         <v>307.6533340553059</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641584</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K20" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L20" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M20" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N20" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O20" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P20" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q20" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R20" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>218.9601396664396</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M21" t="n">
-        <v>554.4630955659486</v>
+        <v>315.040781096703</v>
       </c>
       <c r="N21" t="n">
-        <v>583.6922706327296</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O21" t="n">
-        <v>511.5201565133839</v>
+        <v>511.5201565133841</v>
       </c>
       <c r="P21" t="n">
-        <v>391.0116722749048</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.9575171831111</v>
+        <v>210.9575171831112</v>
       </c>
       <c r="R21" t="n">
-        <v>25.01512932375741</v>
+        <v>25.01512932375749</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36285,13 +36285,13 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M22" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N22" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O22" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P22" t="n">
         <v>307.6533340553059</v>
@@ -36440,10 +36440,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>458.3824541356843</v>
+        <v>218.9601396664386</v>
       </c>
       <c r="M24" t="n">
-        <v>315.040781096703</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N24" t="n">
         <v>583.6922706327299</v>
@@ -36516,7 +36516,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L25" t="n">
         <v>401.8727935817349</v>
@@ -36616,7 +36616,7 @@
         <v>332.5762668227518</v>
       </c>
       <c r="R26" t="n">
-        <v>107.185155544024</v>
+        <v>107.1851555440229</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36759,16 +36759,16 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M28" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895103</v>
       </c>
       <c r="N28" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O28" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P28" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q28" t="n">
         <v>138.4502995641581</v>
@@ -36832,7 +36832,7 @@
         <v>255.0635279116844</v>
       </c>
       <c r="K29" t="n">
-        <v>433.5251384721833</v>
+        <v>433.525138472183</v>
       </c>
       <c r="L29" t="n">
         <v>575.1007761169881</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>101.2059290193557</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414976</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L31" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P31" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q31" t="n">
-        <v>138.450299564158</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>-1.693819046862461e-12</v>
       </c>
       <c r="J32" t="n">
         <v>255.0635279116844</v>
@@ -37148,13 +37148,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>218.9601396664386</v>
       </c>
       <c r="L33" t="n">
-        <v>458.3824541356843</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>315.040781096703</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N33" t="n">
         <v>583.6922706327299</v>
@@ -37227,10 +37227,10 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K34" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L34" t="n">
-        <v>401.8727935817349</v>
+        <v>401.872793581735</v>
       </c>
       <c r="M34" t="n">
         <v>432.4942538895099</v>
@@ -37388,13 +37388,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>218.9601396664386</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M36" t="n">
         <v>554.4630955659488</v>
       </c>
       <c r="N36" t="n">
-        <v>583.6922706327299</v>
+        <v>344.2699561634842</v>
       </c>
       <c r="O36" t="n">
         <v>511.5201565133841</v>
@@ -37461,25 +37461,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>101.2059290193585</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K37" t="n">
-        <v>277.1256801414976</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L37" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M37" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N37" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O37" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P37" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q37" t="n">
         <v>138.4502995641581</v>
@@ -37625,10 +37625,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>218.9601396664386</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M39" t="n">
-        <v>554.4630955659488</v>
+        <v>315.040781096703</v>
       </c>
       <c r="N39" t="n">
         <v>583.6922706327299</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>101.2059290193556</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414976</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L40" t="n">
-        <v>401.8727935817391</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M40" t="n">
-        <v>432.4942538895097</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N40" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O40" t="n">
-        <v>381.9794231908711</v>
+        <v>381.9794231908716</v>
       </c>
       <c r="P40" t="n">
-        <v>307.6533340553057</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q40" t="n">
-        <v>138.4502995641579</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>687.4322072151685</v>
       </c>
       <c r="O41" t="n">
-        <v>635.6527791348813</v>
+        <v>635.6527791348797</v>
       </c>
       <c r="P41" t="n">
         <v>507.6654448276933</v>
@@ -37801,7 +37801,7 @@
         <v>332.5762668227518</v>
       </c>
       <c r="R41" t="n">
-        <v>107.1851555440219</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,13 +37859,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>218.9601396664386</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M42" t="n">
-        <v>554.4630955659488</v>
+        <v>8.938711046334902</v>
       </c>
       <c r="N42" t="n">
         <v>583.6922706327299</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>101.2059290193544</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K43" t="n">
         <v>277.1256801414978</v>
       </c>
       <c r="L43" t="n">
-        <v>401.872793581735</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M43" t="n">
         <v>432.4942538895099</v>
@@ -37956,7 +37956,7 @@
         <v>307.6533340553059</v>
       </c>
       <c r="Q43" t="n">
-        <v>138.4502995641582</v>
+        <v>138.450299564157</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>575.1007761169881</v>
       </c>
       <c r="M44" t="n">
-        <v>671.8997542381572</v>
+        <v>671.8997542381561</v>
       </c>
       <c r="N44" t="n">
         <v>687.4322072151685</v>
@@ -38096,10 +38096,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>218.9601396664386</v>
       </c>
       <c r="L45" t="n">
-        <v>218.9601396664386</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>554.4630955659488</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>101.2059290193544</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K46" t="n">
         <v>277.1256801414978</v>
@@ -38193,7 +38193,7 @@
         <v>307.6533340553059</v>
       </c>
       <c r="Q46" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
